--- a/data/zhdata.xlsx
+++ b/data/zhdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1033,7 +1033,7 @@
         <v>2024</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">

--- a/data/zhdata.xlsx
+++ b/data/zhdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>总体运营指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,22 @@
   </si>
   <si>
     <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyzj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -722,13 +738,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -748,8 +767,8 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
-        <v>100</v>
+      <c r="C2" s="1">
+        <v>80754.89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -759,8 +778,8 @@
       <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3">
-        <v>100</v>
+      <c r="C3" s="1">
+        <v>17379.48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -770,206 +789,239 @@
       <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4">
-        <v>20</v>
+      <c r="C4" s="1">
+        <v>42490.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>300</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>68848</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6">
-        <v>20</v>
+      <c r="C6" s="1">
+        <v>35487.9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7">
-        <v>500</v>
+      <c r="C7" s="1">
+        <v>91060.2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
-        <v>10</v>
+      <c r="C8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>134950</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10">
-        <v>200</v>
+      <c r="C10" s="1">
+        <v>84064.4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
-        <v>300</v>
+      <c r="C11" s="1">
+        <v>25829.64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12">
-        <v>10000</v>
+      <c r="C12" s="1">
+        <v>3353.03</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>200</v>
+        <v>29</v>
+      </c>
+      <c r="C13" s="1">
+        <v>168284.5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14">
-        <v>200</v>
+      <c r="C14" s="1">
+        <v>61996.3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C15">
-        <v>300</v>
+      <c r="C15" s="2">
+        <v>85629</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>200</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>135730</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="C18" s="1">
+        <v>43964.18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19">
-        <v>20</v>
+      <c r="C19" s="1">
+        <v>12708.9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20">
-        <v>20</v>
+      <c r="C20" s="2">
+        <v>18846</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21">
-        <v>500</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
+        <v>100167.8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22">
-        <v>200</v>
+      <c r="C22" s="1">
+        <v>36451.699999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30170.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2">
+        <v>107710</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2">
+        <v>26675</v>
       </c>
     </row>
   </sheetData>
@@ -982,11 +1034,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -1000,48 +1055,48 @@
       <c r="A2">
         <v>2020</v>
       </c>
-      <c r="B2">
-        <v>200</v>
+      <c r="B2" s="2">
+        <v>172983</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2021</v>
       </c>
-      <c r="B3">
-        <v>300</v>
+      <c r="B3" s="2">
+        <v>465403</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2022</v>
       </c>
-      <c r="B4">
-        <v>600</v>
+      <c r="B4" s="1">
+        <v>474854.7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2023</v>
       </c>
-      <c r="B5">
-        <v>500</v>
+      <c r="B5" s="1">
+        <v>470940.7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2024</v>
       </c>
-      <c r="B6">
-        <v>200</v>
+      <c r="B6" s="2">
+        <v>605487</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2025</v>
       </c>
-      <c r="B7">
-        <v>200</v>
+      <c r="B7" s="1">
+        <v>375153.8</v>
       </c>
     </row>
   </sheetData>

--- a/data/zhdata.xlsx
+++ b/data/zhdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>2564822.21</v>
+        <v>3121471.1899999995</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -1034,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/data/zhdata.xlsx
+++ b/data/zhdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -488,7 +488,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>3121471.1899999995</v>
+        <v>3205797.3900000006</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +524,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -550,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>480425</v>
+        <v>627679.12</v>
       </c>
       <c r="C2" s="2">
         <v>174855</v>
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>58499.59</v>
+        <v>63170.080000000002</v>
       </c>
       <c r="C3">
         <v>999</v>
@@ -572,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>280579.46999999997</v>
+        <v>558319.12000000011</v>
       </c>
       <c r="C4" s="2">
         <v>4000</v>
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>337944.3</v>
+        <v>394429.3</v>
       </c>
       <c r="C5" s="2">
         <v>49800</v>
@@ -594,7 +594,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>271220.90000000002</v>
+        <v>286389.90999999992</v>
       </c>
       <c r="C6" s="2">
         <v>50777</v>
@@ -605,7 +605,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>459643.16</v>
+        <v>508812.29</v>
       </c>
       <c r="C7" s="2">
         <v>10585</v>
@@ -616,7 +616,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>58010</v>
+        <v>194455</v>
       </c>
       <c r="C8" s="1">
         <v>49160</v>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -669,7 +669,7 @@
         <v>2020</v>
       </c>
       <c r="B2" s="1">
-        <v>172983</v>
+        <v>329854.56</v>
       </c>
       <c r="C2" s="2">
         <v>19361</v>
@@ -680,7 +680,7 @@
         <v>2121</v>
       </c>
       <c r="B3" s="1">
-        <v>465403</v>
+        <v>492025.49999999971</v>
       </c>
       <c r="C3" s="2">
         <v>78142</v>
@@ -691,7 +691,7 @@
         <v>2022</v>
       </c>
       <c r="B4" s="1">
-        <v>474854.7</v>
+        <v>474854.6999999999</v>
       </c>
       <c r="C4" s="2">
         <v>70782</v>
@@ -702,7 +702,7 @@
         <v>2023</v>
       </c>
       <c r="B5" s="1">
-        <v>470940.7</v>
+        <v>470940.67</v>
       </c>
       <c r="C5" s="2">
         <v>65218</v>
@@ -713,7 +713,7 @@
         <v>2024</v>
       </c>
       <c r="B6" s="1">
-        <v>605487</v>
+        <v>605487.00999999978</v>
       </c>
       <c r="C6" s="2">
         <v>82326</v>
@@ -724,7 +724,7 @@
         <v>2025</v>
       </c>
       <c r="B7" s="1">
-        <v>375153.8</v>
+        <v>563723.9</v>
       </c>
       <c r="C7" s="2">
         <v>46126</v>
@@ -1032,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1053,50 +1053,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B2" s="2">
-        <v>172983</v>
+        <v>37416.74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B3" s="2">
-        <v>465403</v>
+        <v>231494.31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="1">
-        <v>474854.7</v>
+        <v>329854.56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B5" s="1">
-        <v>470940.7</v>
+        <v>492025.49999999971</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B6" s="2">
-        <v>605487</v>
+        <v>474854.6999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="1">
+        <v>470940.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2024</v>
+      </c>
+      <c r="B8">
+        <v>605487.00999999978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>2025</v>
       </c>
-      <c r="B7" s="1">
-        <v>375153.8</v>
+      <c r="B9">
+        <v>563723.9</v>
       </c>
     </row>
   </sheetData>
